--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>3주차</t>
   </si>
@@ -412,11 +412,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>※ 휴일: 12/25(성탄절)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 17회차 주별 상세일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 휴일: 12/25(성탄절), 1/1(신정),1/28-30(구정3일),3/3(3.1절대체휴일)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,7 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,27 +767,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,27 +824,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,6 +843,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1184,10 +1179,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1208,41 +1203,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
+      <c r="B2" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1266,949 +1261,954 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="38">
         <v>45561</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38">
         <v>45562</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="40">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="33" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="34"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="38">
         <v>45565</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="D6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="38">
         <v>45569</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="40">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="40" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="38">
         <v>45572</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="D7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="38">
         <v>45573</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="40">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="40" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="23">
         <v>45575</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="23">
         <v>45576</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="25">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="15" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="12">
         <v>45579</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12">
         <v>45583</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="14">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>45586</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12">
         <v>45590</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>45593</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12">
         <v>45597</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="14">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <v>45600</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12">
         <v>45604</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>45607</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12">
         <v>45611</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="23"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <v>45614</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="D14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12">
         <v>45618</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="14">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <v>45621</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="12">
         <v>45625</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="14">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="23"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <v>45628</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12">
         <v>45632</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="23"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <v>45635</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12">
         <v>45639</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="14">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <v>45642</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="12">
         <v>45646</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="14">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22" t="s">
+      <c r="H18" s="15"/>
+      <c r="I18" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="23"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="12">
         <v>45649</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12">
         <v>45653</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="36">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <v>45656</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="12">
         <v>45660</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="36">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <v>45663</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="12">
         <v>45667</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="12">
         <v>45670</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12">
         <v>45674</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="23"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="12">
         <v>45677</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="D23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12">
         <v>45681</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="12">
         <v>45684</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="12">
         <v>45688</v>
       </c>
-      <c r="F24" s="20">
-        <f>DAYS360(C24,E24)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="36">
+        <f>DAYS360(C24,E24)-2</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="22" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="16"/>
+      <c r="K24" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="12">
         <v>45691</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="18">
+      <c r="D25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12">
         <v>45695</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21" t="s">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="12">
         <v>45698</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="18">
+      <c r="D26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="12">
         <v>45702</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="15"/>
+      <c r="I26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L26" s="23"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="2:12" ht="55.5" customHeight="1">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="12">
         <v>45705</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="D27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12">
         <v>45709</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="21" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="L27" s="19"/>
     </row>
     <row r="28" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="12">
         <v>45712</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="18">
+      <c r="D28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12">
         <v>45716</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="14">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="21" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="25"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="18">
-        <v>45719</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="C29" s="12">
+        <v>45720</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="12">
         <v>45723</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="36">
         <f>DAYS360(C29,E29)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="21" t="s">
+      <c r="H29" s="20"/>
+      <c r="I29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="27"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="12">
         <v>45726</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="18">
+      <c r="D30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="12">
         <v>45730</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="14">
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="21" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22" t="s">
+      <c r="J30" s="16"/>
+      <c r="K30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L30" s="27"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:12" ht="51" customHeight="1">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <v>45733</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="18">
+      <c r="D31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="12">
         <v>45737</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="21" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L31" s="27"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="2:12" ht="51" customHeight="1">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="12">
         <v>45740</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="18">
+      <c r="D32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12">
         <v>45744</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="14">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="21" t="s">
+      <c r="H32" s="20"/>
+      <c r="I32" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="27"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="2:12" ht="51" customHeight="1">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <v>45747</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="18">
+      <c r="D33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="12">
         <v>45751</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="14">
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="21" t="s">
+      <c r="H33" s="20"/>
+      <c r="I33" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="27"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="4">
         <f>SUM(F8:F33)</f>
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="21">
-      <c r="B36" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="B36" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="I47" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -144,11 +144,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>UI/UX 구성요소 설계 및 제작
-UI/UX Web 퍼블리싱 기초</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/UX Web 퍼블리싱 기초</t>
   </si>
   <si>
@@ -426,6 +421,10 @@
   </si>
   <si>
     <t>※ 휴일: 12/25(성탄절), 1/1(신정),1/28-30(구정3일),3/3(3.1절대체휴일)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX Web 퍼블리싱 기초</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -835,6 +834,27 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,27 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,7 +1189,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1211,41 +1210,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1253,13 +1252,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>9</v>
@@ -1270,7 +1269,7 @@
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B5" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="25">
         <v>45561</v>
@@ -1292,13 +1291,13 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B6" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="25">
         <v>45565</v>
@@ -1320,13 +1319,13 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B7" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="25">
         <v>45572</v>
@@ -1348,7 +1347,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="30"/>
     </row>
@@ -1370,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -1382,36 +1381,36 @@
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="32">
         <v>45579</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="39">
+      <c r="D9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="32">
         <v>45583</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="34">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="44"/>
+        <v>36</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B10" s="11" t="s">
@@ -1431,17 +1430,17 @@
         <v>5</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" s="17"/>
     </row>
@@ -1463,17 +1462,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" s="17"/>
     </row>
@@ -1495,17 +1494,17 @@
         <v>5</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="L12" s="17"/>
     </row>
@@ -1527,17 +1526,17 @@
         <v>5</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" s="17"/>
     </row>
@@ -1559,17 +1558,17 @@
         <v>5</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="17"/>
     </row>
@@ -1591,17 +1590,17 @@
         <v>5</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="L15" s="17"/>
     </row>
@@ -1623,17 +1622,17 @@
         <v>5</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="17"/>
     </row>
@@ -1655,17 +1654,17 @@
         <v>5</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="17"/>
     </row>
@@ -1687,17 +1686,17 @@
         <v>5</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -1719,17 +1718,17 @@
         <v>4</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -1751,17 +1750,17 @@
         <v>4</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -1783,17 +1782,17 @@
         <v>5</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -1815,17 +1814,17 @@
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -1847,17 +1846,17 @@
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L23" s="17"/>
     </row>
@@ -1879,15 +1878,15 @@
         <v>2</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="17"/>
     </row>
@@ -1909,17 +1908,17 @@
         <v>5</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="17"/>
     </row>
@@ -1941,17 +1940,17 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -1973,17 +1972,17 @@
         <v>5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L27" s="19"/>
     </row>
@@ -2005,17 +2004,17 @@
         <v>5</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L28" s="19"/>
     </row>
@@ -2037,17 +2036,17 @@
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L29" s="21"/>
     </row>
@@ -2069,15 +2068,15 @@
         <v>5</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L30" s="21"/>
     </row>
@@ -2099,17 +2098,17 @@
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L31" s="21"/>
     </row>
@@ -2131,17 +2130,17 @@
         <v>5</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L32" s="21"/>
     </row>
@@ -2163,17 +2162,17 @@
         <v>5</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="21"/>
     </row>
@@ -2186,36 +2185,36 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="B36" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>3주차</t>
   </si>
@@ -147,40 +147,13 @@
     <t>UI/UX Web 퍼블리싱 기초</t>
   </si>
   <si>
-    <t>UI/UX Web 퍼블리싱 기초
-프로그래밍 언어 활용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그래밍 언어 활용</t>
   </si>
   <si>
-    <t>프로그래밍 언어 활용
-Web Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Web Project</t>
   </si>
   <si>
-    <t>Web Project
-하이브리드앱/PWA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>하이브리드앱/PWA</t>
-  </si>
-  <si>
-    <t>하이브리드앱/PWA
-모바일웹&amp;앱Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;앱Project</t>
-  </si>
-  <si>
-    <t>웹 프론트엔드 개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>과목종료일</t>
@@ -253,10 +226,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>JS응용 / jQuery 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -335,43 +304,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 상세코딩
 팀PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 상세코딩
-팀PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩
-팀PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩
-팀프로젝트 제출 및 발표(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -424,7 +362,84 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>UI/UX Web 퍼블리싱 기초</t>
+    <t>12/6(금)5-8
+취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 PJ 작품발표회
+12/26(목) 5-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 언어 활용 (11/27)
+Web Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX Web 퍼블리싱 기초 (10/28)
+프로그래밍 언어 활용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Project (12/27)
+하이브리드앱/PWA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이브리드앱/PWA (1/15)
+모바일웹&amp;웹Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;웹Project</t>
+  </si>
+  <si>
+    <t>모바일웹&amp;웹Project (2/11)
+UI/UX 디자인구성요소 설계 및 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX 디자인구성요소 설계 및 제작</t>
+  </si>
+  <si>
+    <t>2차 PJ 작품발표회
+2/10(월) 5-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX 디자인구성요소 설계 및 제작(2/27)
+웹 프론트엔드 개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발</t>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발 (3/18)
+SPA Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPA Project</t>
+  </si>
+  <si>
+    <t>3차 PJ 작품발표회
+3/27(목) 3-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료식
+4/4(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀PJ 상세코딩
+3차 주제선정 / 분석,설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +591,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -740,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +896,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1189,7 +1219,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B35" sqref="B35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1211,7 +1241,7 @@
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="42" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -1252,13 +1282,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>9</v>
@@ -1269,7 +1299,7 @@
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B5" s="24" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C5" s="25">
         <v>45561</v>
@@ -1291,13 +1321,13 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="29" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B6" s="24" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C6" s="25">
         <v>45565</v>
@@ -1319,13 +1349,13 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="29" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B7" s="24" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C7" s="25">
         <v>45572</v>
@@ -1347,7 +1377,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="29" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L7" s="30"/>
     </row>
@@ -1402,13 +1432,13 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="33" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L9" s="37"/>
     </row>
@@ -1434,13 +1464,13 @@
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L10" s="17"/>
     </row>
@@ -1462,17 +1492,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L11" s="17"/>
     </row>
@@ -1494,17 +1524,17 @@
         <v>5</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L12" s="17"/>
     </row>
@@ -1526,17 +1556,17 @@
         <v>5</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L13" s="17"/>
     </row>
@@ -1562,13 +1592,13 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L14" s="17"/>
     </row>
@@ -1590,17 +1620,17 @@
         <v>5</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L15" s="17"/>
     </row>
@@ -1626,15 +1656,17 @@
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B17" s="11" t="s">
@@ -1658,13 +1690,13 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L17" s="17"/>
     </row>
@@ -1690,13 +1722,13 @@
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -1718,17 +1750,19 @@
         <v>4</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>90</v>
+      </c>
       <c r="I19" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -1750,17 +1784,17 @@
         <v>4</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -1782,17 +1816,17 @@
         <v>5</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -1814,17 +1848,17 @@
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -1846,17 +1880,17 @@
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L23" s="17"/>
     </row>
@@ -1878,15 +1912,17 @@
         <v>2</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="K24" s="16" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="L24" s="17"/>
     </row>
@@ -1908,17 +1944,17 @@
         <v>5</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L25" s="17"/>
     </row>
@@ -1940,17 +1976,19 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>98</v>
+      </c>
       <c r="I26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -1972,17 +2010,17 @@
         <v>5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L27" s="19"/>
     </row>
@@ -2004,17 +2042,17 @@
         <v>5</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L28" s="19"/>
     </row>
@@ -2036,17 +2074,17 @@
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L29" s="21"/>
     </row>
@@ -2068,15 +2106,17 @@
         <v>5</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="K30" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L30" s="21"/>
     </row>
@@ -2098,17 +2138,17 @@
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="15" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L31" s="21"/>
     </row>
@@ -2130,17 +2170,19 @@
         <v>5</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>103</v>
+      </c>
       <c r="I32" s="15" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L32" s="21"/>
     </row>
@@ -2162,19 +2204,21 @@
         <v>5</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="15" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="L33" s="47" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C34" s="1"/>
@@ -2200,7 +2244,7 @@
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
       <c r="B36" s="41" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
@@ -2214,7 +2258,7 @@
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023SPWOL\Documents\GitHub\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -203,8 +203,233 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-프로토타이핑(Figma)</t>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+와이어프레임 제출(수)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃코딩
+프로토타입 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v1. / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용
+Vue JS 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 응용
+Vue JS 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ</t>
+  </si>
+  <si>
+    <t>DC PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹기초 + UI/UX개념 + 피그마</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 17회차 주별 상세일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 휴일: 12/25(성탄절), 1/1(신정),1/28-30(구정3일),3/3(3.1절대체휴일)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/6(금)5-8
+취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 PJ 작품발표회
+12/26(목) 5-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 언어 활용 (11/27)
+Web Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX Web 퍼블리싱 기초 (10/28)
+프로그래밍 언어 활용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Project (12/27)
+하이브리드앱/PWA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이브리드앱/PWA (1/15)
+모바일웹&amp;웹Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;웹Project</t>
+  </si>
+  <si>
+    <t>모바일웹&amp;웹Project (2/11)
+UI/UX 디자인구성요소 설계 및 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX 디자인구성요소 설계 및 제작</t>
+  </si>
+  <si>
+    <t>2차 PJ 작품발표회
+2/10(월) 5-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX 디자인구성요소 설계 및 제작(2/27)
+웹 프론트엔드 개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발</t>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발 (3/18)
+SPA Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPA Project</t>
+  </si>
+  <si>
+    <t>3차 PJ 작품발표회
+3/27(목) 3-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료식
+4/4(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀PJ 상세코딩
+3차 주제선정 / 분석,설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -213,233 +438,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계
-와이어프레임 제출(수)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃코딩
-프로토타입 제출(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃/상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃/상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩
-팀PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용
-Vue JS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용
-Vue JS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC PJ</t>
-  </si>
-  <si>
-    <t>DC PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹기초 + UI/UX개념 + 피그마</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 17회차 주별 상세일정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 휴일: 12/25(성탄절), 1/1(신정),1/28-30(구정3일),3/3(3.1절대체휴일)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/6(금)5-8
-취업세미나</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 PJ 작품발표회
-12/26(목) 5-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그래밍 언어 활용 (11/27)
-Web Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX Web 퍼블리싱 기초 (10/28)
-프로그래밍 언어 활용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Project (12/27)
-하이브리드앱/PWA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브리드앱/PWA (1/15)
-모바일웹&amp;웹Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;웹Project</t>
-  </si>
-  <si>
-    <t>모바일웹&amp;웹Project (2/11)
-UI/UX 디자인구성요소 설계 및 제작</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX 디자인구성요소 설계 및 제작</t>
-  </si>
-  <si>
-    <t>2차 PJ 작품발표회
-2/10(월) 5-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX 디자인구성요소 설계 및 제작(2/27)
-웹 프론트엔드 개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 프론트엔드 개발</t>
-  </si>
-  <si>
-    <t>웹 프론트엔드 개발 (3/18)
-SPA Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPA Project</t>
-  </si>
-  <si>
-    <t>3차 PJ 작품발표회
-3/27(목) 3-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수료식
-4/4(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀PJ 상세코딩
-3차 주제선정 / 분석,설계</t>
+    <t>HTML5 + CSS3 기본 및 응용연습
+와이어프레이밍 / 프로토타이핑(Figma)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +876,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,14 +906,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1219,7 +1240,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:K35"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1240,41 +1261,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
+      <c r="B2" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1320,7 @@
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B5" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="25">
         <v>45561</v>
@@ -1321,13 +1342,13 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B6" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="25">
         <v>45565</v>
@@ -1349,13 +1370,13 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B7" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="25">
         <v>45572</v>
@@ -1377,7 +1398,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L7" s="30"/>
     </row>
@@ -1410,69 +1431,69 @@
       <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="49">
         <v>45579</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="D9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="49">
         <v>45583</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="51">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="37"/>
+      <c r="K9" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="32">
         <v>45586</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="32">
         <v>45590</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="17"/>
+      <c r="K10" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="B11" s="11" t="s">
@@ -1492,17 +1513,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="17"/>
     </row>
@@ -1528,7 +1549,7 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>47</v>
@@ -1560,13 +1581,13 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L13" s="17"/>
     </row>
@@ -1592,13 +1613,13 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L14" s="17"/>
     </row>
@@ -1620,17 +1641,17 @@
         <v>5</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="17"/>
     </row>
@@ -1656,16 +1677,16 @@
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>89</v>
+        <v>64</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
@@ -1690,13 +1711,13 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17" s="17"/>
     </row>
@@ -1722,13 +1743,13 @@
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -1750,19 +1771,19 @@
         <v>4</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -1791,10 +1812,10 @@
         <v>44</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -1820,13 +1841,13 @@
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -1848,17 +1869,17 @@
         <v>5</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -1880,17 +1901,17 @@
         <v>5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L23" s="17"/>
     </row>
@@ -1912,17 +1933,17 @@
         <v>2</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L24" s="17"/>
     </row>
@@ -1944,17 +1965,17 @@
         <v>5</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L25" s="17"/>
     </row>
@@ -1976,19 +1997,19 @@
         <v>5</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>96</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>98</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L26" s="17"/>
     </row>
@@ -2010,17 +2031,17 @@
         <v>5</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="L27" s="19"/>
     </row>
@@ -2042,14 +2063,14 @@
         <v>5</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>49</v>
@@ -2074,14 +2095,14 @@
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>49</v>
@@ -2106,14 +2127,14 @@
         <v>5</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>49</v>
@@ -2138,14 +2159,14 @@
         <v>5</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>50</v>
@@ -2170,16 +2191,16 @@
         <v>5</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>50</v>
@@ -2204,20 +2225,20 @@
         <v>5</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L33" s="47" t="s">
-        <v>104</v>
+      <c r="L33" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2229,36 +2250,36 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
+      <c r="B36" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="225" windowWidth="19380" windowHeight="8895"/>
+    <workbookView xWindow="600" yWindow="227" windowWidth="19380" windowHeight="8893"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>3주차</t>
   </si>
@@ -168,12 +163,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비 PJ v1.</t>
-  </si>
-  <si>
-    <t>보그 PJ</t>
-  </si>
-  <si>
     <t>파일럿 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -183,270 +172,300 @@
   </si>
   <si>
     <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ</t>
+  </si>
+  <si>
+    <t>DC PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹기초 + UI/UX개념 + 피그마</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 17회차 주별 상세일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 휴일: 12/25(성탄절), 1/1(신정),1/28-30(구정3일),3/3(3.1절대체휴일)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/6(금)5-8
+취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 PJ 작품발표회
+12/26(목) 5-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 언어 활용 (11/27)
+Web Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX Web 퍼블리싱 기초 (10/28)
+프로그래밍 언어 활용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Project (12/27)
+하이브리드앱/PWA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이브리드앱/PWA (1/15)
+모바일웹&amp;웹Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;웹Project</t>
+  </si>
+  <si>
+    <t>모바일웹&amp;웹Project (2/11)
+UI/UX 디자인구성요소 설계 및 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX 디자인구성요소 설계 및 제작</t>
+  </si>
+  <si>
+    <t>2차 PJ 작품발표회
+2/10(월) 5-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX 디자인구성요소 설계 및 제작(2/27)
+웹 프론트엔드 개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발</t>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발 (3/18)
+SPA Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPA Project</t>
+  </si>
+  <si>
+    <t>3차 PJ 작품발표회
+3/27(목) 3-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료식
+4/4(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+와이어프레이밍(Balsamiq)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+와이어프레이밍 / 프로토타이핑(Figma)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 Javascript 기본</t>
-  </si>
-  <si>
-    <t>Vue JS 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
-프로토타이핑(Figma)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
+프로토타이핑(Figma) / Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본 / 제이쿼리 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용 / 제이쿼리 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue JS 기본
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue JS 응용
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1차 분석 / 설계
-와이어프레임 제출(수)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃코딩
-프로토타입 제출(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃/상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃/상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
+와이어프레임 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+프로토타이핑 1차 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+프로토타이핑 2차 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 테스트/수정/배포
+2차 팀PJ 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 발표
+3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 테스트/수정/배포
+3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1차 상세코딩
-팀PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용
-Vue JS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용
-Vue JS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC PJ</t>
-  </si>
-  <si>
-    <t>DC PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹기초 + UI/UX개념 + 피그마</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 17회차 주별 상세일정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 휴일: 12/25(성탄절), 1/1(신정),1/28-30(구정3일),3/3(3.1절대체휴일)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/6(금)5-8
-취업세미나</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 PJ 작품발표회
-12/26(목) 5-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그래밍 언어 활용 (11/27)
-Web Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX Web 퍼블리싱 기초 (10/28)
-프로그래밍 언어 활용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Project (12/27)
-하이브리드앱/PWA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브리드앱/PWA (1/15)
-모바일웹&amp;웹Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;웹Project</t>
-  </si>
-  <si>
-    <t>모바일웹&amp;웹Project (2/11)
-UI/UX 디자인구성요소 설계 및 제작</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX 디자인구성요소 설계 및 제작</t>
-  </si>
-  <si>
-    <t>2차 PJ 작품발표회
-2/10(월) 5-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX 디자인구성요소 설계 및 제작(2/27)
-웹 프론트엔드 개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹 프론트엔드 개발</t>
-  </si>
-  <si>
-    <t>웹 프론트엔드 개발 (3/18)
-SPA Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPA Project</t>
-  </si>
-  <si>
-    <t>3차 PJ 작품발표회
-3/27(목) 3-8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수료식
-4/4(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀PJ 상세코딩
-3차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-와이어프레이밍(Balsamiq)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-와이어프레이밍 / 프로토타이핑(Figma)</t>
+2차 팀PJ 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩 / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩
+보그 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩
+보그 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 프로토타이핑 / CGV PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -761,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,9 +811,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,9 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,9 +880,6 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,6 +895,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,26 +937,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -990,7 +1012,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,7 +1047,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1239,63 +1261,63 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.38671875" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.38671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="1" spans="1:12" ht="17" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
+      <c r="B2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1319,926 +1341,926 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="23">
         <v>45561</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="23">
         <v>45562</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="30"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="23">
         <v>45565</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="23">
         <v>45569</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="30"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="23">
         <v>45572</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="23">
         <v>45573</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="24" t="s">
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <v>45575</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="23">
         <v>45576</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="29" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="48" t="s">
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="39">
         <v>45579</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="49">
+      <c r="D9" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="39">
         <v>45583</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="41">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="54"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="31" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="44"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B10" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="39">
         <v>45586</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="D10" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="39">
         <v>45590</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="30">
         <v>45593</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="30">
         <v>45597</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="32">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="G11" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>45600</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
         <v>45604</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="11" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>45607</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
         <v>45611</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="11" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>45614</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11">
         <v>45618</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="11" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>45621</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11">
         <v>45625</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="11" t="s">
+      <c r="G15" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>45628</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11">
         <v>45632</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="11" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>45635</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11">
         <v>45639</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="11" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>45642</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11">
         <v>45646</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="11" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>45649</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
         <v>45653</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="K19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>45656</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11">
         <v>45660</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="11" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>45663</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11">
         <v>45667</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="11" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>45670</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11">
         <v>45674</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="11" t="s">
+      <c r="G22" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>45677</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11">
         <v>45681</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B24" s="11" t="s">
+      <c r="K23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>45684</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11">
         <v>45688</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B25" s="11" t="s">
+      <c r="G24" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>45691</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11">
         <v>45695</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B26" s="11" t="s">
+      <c r="G25" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>45698</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11">
         <v>45702</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="2:12" ht="55.5" customHeight="1">
-      <c r="B27" s="11" t="s">
+      <c r="G26" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>45705</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11">
         <v>45709</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B28" s="11" t="s">
+      <c r="G27" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>45712</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11">
         <v>45716</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1">
-      <c r="B29" s="11" t="s">
+      <c r="G28" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>45720</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11">
         <v>45723</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="21">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1">
-      <c r="B30" s="11" t="s">
+      <c r="G29" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>45726</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11">
         <v>45730</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="2:12" ht="51" customHeight="1">
-      <c r="B31" s="11" t="s">
+      <c r="G30" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>45733</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11">
         <v>45737</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="16" t="s">
+      <c r="G31" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" spans="2:12" ht="51" customHeight="1">
-      <c r="B32" s="11" t="s">
+      <c r="K31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>45740</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11">
         <v>45744</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="2:12" ht="51" customHeight="1">
-      <c r="B33" s="11" t="s">
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>45747</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="11">
         <v>45751</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>102</v>
+      <c r="L33" s="37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2250,36 +2272,36 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" spans="2:12" s="5" customFormat="1" ht="21">
+      <c r="B36" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2315,7 +2337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="227" windowWidth="19380" windowHeight="8893"/>
+    <workbookView xWindow="600" yWindow="225" windowWidth="19380" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -465,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -780,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +921,15 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,17 +951,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1012,7 +1020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,7 +1055,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1261,63 +1269,63 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.38671875" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.38671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1"/>
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1441,7 +1449,7 @@
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="45" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="24"/>
@@ -1469,7 +1477,7 @@
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="45" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="42"/>
@@ -1501,7 +1509,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="45" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="42"/>
@@ -1517,69 +1525,69 @@
       <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="39">
         <v>45593</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="30">
+      <c r="D11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="39">
         <v>45597</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="41">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="31" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="34"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="30">
         <v>45600</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="30">
         <v>45604</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="55"/>
+      <c r="I12" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B13" s="10" t="s">
@@ -1598,7 +1606,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="47" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="14"/>
@@ -1630,7 +1638,7 @@
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="47" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="17"/>
@@ -1662,7 +1670,7 @@
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="47" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="14"/>
@@ -1694,7 +1702,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="47" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="14"/>
@@ -1728,7 +1736,7 @@
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="47" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="14"/>
@@ -1760,7 +1768,7 @@
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="47" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="14"/>
@@ -1792,7 +1800,7 @@
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="47" t="s">
         <v>64</v>
       </c>
       <c r="H19" s="36" t="s">
@@ -1826,7 +1834,7 @@
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="47" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="14"/>
@@ -1858,7 +1866,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="47" t="s">
         <v>39</v>
       </c>
       <c r="H21" s="14"/>
@@ -1890,7 +1898,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="47" t="s">
         <v>65</v>
       </c>
       <c r="H22" s="14"/>
@@ -1922,7 +1930,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="47" t="s">
         <v>66</v>
       </c>
       <c r="H23" s="14"/>
@@ -1954,7 +1962,7 @@
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="47" t="s">
         <v>66</v>
       </c>
       <c r="H24" s="17"/>
@@ -1986,7 +1994,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="47" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="14"/>
@@ -2018,7 +2026,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="47" t="s">
         <v>67</v>
       </c>
       <c r="H26" s="36" t="s">
@@ -2052,7 +2060,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="47" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="17"/>
@@ -2084,7 +2092,7 @@
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="47" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="19"/>
@@ -2116,7 +2124,7 @@
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="47" t="s">
         <v>71</v>
       </c>
       <c r="H29" s="19"/>
@@ -2148,7 +2156,7 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="47" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="17"/>
@@ -2180,7 +2188,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="47" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="19"/>
@@ -2212,7 +2220,7 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H32" s="36" t="s">
@@ -2246,7 +2254,7 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="47" t="s">
         <v>73</v>
       </c>
       <c r="H33" s="19"/>
@@ -2272,32 +2280,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-    </row>
-    <row r="36" spans="2:12" s="5" customFormat="1" ht="21">
-      <c r="B36" s="48" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+    </row>
+    <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
+      <c r="B36" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">
@@ -2314,7 +2322,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2324,7 +2332,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,7 +2345,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -930,6 +930,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,12 +955,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1291,41 +1291,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="G11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="56"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="40" t="s">
         <v>109</v>
       </c>
@@ -1557,69 +1557,69 @@
       <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="39">
         <v>45600</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="30">
+      <c r="D12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="39">
         <v>45604</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="31" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="34"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="30">
         <v>45607</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="30">
         <v>45611</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="48"/>
+      <c r="I13" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B14" s="10" t="s">
@@ -2280,32 +2280,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1296,8 +1296,8 @@
     <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="55" t="s">
         <v>57</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="K2" s="56"/>
       <c r="L2" s="57"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
@@ -1324,7 +1324,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B5" s="22" t="s">
         <v>53</v>
       </c>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
+    <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B6" s="22" t="s">
         <v>54</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
+    <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B7" s="22" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B9" s="37" t="s">
         <v>16</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="L9" s="43"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B10" s="37" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="L10" s="43"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B11" s="37" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="L11" s="43"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B12" s="37" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="L12" s="43"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B13" s="37" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="L13" s="43"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B14" s="37" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B15" s="37" t="s">
         <v>5</v>
       </c>
@@ -1693,72 +1693,72 @@
       </c>
       <c r="L15" s="43"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="38">
         <v>45628</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="30">
+      <c r="D16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="38">
         <v>45632</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="33" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="49"/>
-    </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="10" t="s">
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="30">
         <v>45635</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="30">
         <v>45639</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="32">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="L18" s="16"/>
     </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="L19" s="16"/>
     </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="L22" s="16"/>
     </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="L24" s="16"/>
     </row>
-    <row r="25" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="L25" s="16"/>
     </row>
-    <row r="26" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="L26" s="16"/>
     </row>
-    <row r="27" spans="2:12" ht="56.45" customHeight="1">
+    <row r="27" spans="1:12" ht="56.45" customHeight="1">
       <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:12" ht="56.45" customHeight="1">
+    <row r="28" spans="1:12" ht="56.45" customHeight="1">
       <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="56.45" customHeight="1">
+    <row r="29" spans="1:12" ht="56.45" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="2:12" ht="56.45" customHeight="1">
+    <row r="30" spans="1:12" ht="56.45" customHeight="1">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="2:12" ht="56.45" customHeight="1">
+    <row r="31" spans="1:12" ht="56.45" customHeight="1">
       <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="L31" s="20"/>
     </row>
-    <row r="32" spans="2:12" ht="56.45" customHeight="1">
+    <row r="32" spans="1:12" ht="56.45" customHeight="1">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1726,69 +1726,69 @@
       <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="38">
         <v>45635</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="30">
+      <c r="D17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="38">
         <v>45639</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="40">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="33" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="49"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="30">
         <v>45642</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="D18" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="30">
         <v>45646</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="32">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="48"/>
+      <c r="I18" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B19" s="10" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -789,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,9 +932,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,7 +1274,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1298,41 +1295,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1657,7 +1654,7 @@
       <c r="K14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="49" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1758,71 +1755,71 @@
       <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="38">
         <v>45642</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="30">
+      <c r="D18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="38">
         <v>45646</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="40">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="33" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="49"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="30">
         <v>45649</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D19" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="30">
         <v>45653</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="32">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="45" t="s">
         <v>63</v>
       </c>
       <c r="H19" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="48"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B20" s="10" t="s">
@@ -2289,32 +2286,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="225" windowWidth="19380" windowHeight="8895"/>
+    <workbookView xWindow="600" yWindow="227" windowWidth="19380" windowHeight="8893"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
@@ -474,7 +469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -789,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,6 +954,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,7 +1022,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,7 +1057,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1273,27 +1271,27 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.38671875" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.38671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="54" t="s">
         <v>57</v>
@@ -1787,71 +1785,71 @@
       <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="38">
         <v>45649</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="30">
+      <c r="D19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="38">
         <v>45653</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="40">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="48"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="30">
         <v>45656</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="30">
         <v>45660</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="32">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15" t="s">
+      <c r="H20" s="57"/>
+      <c r="I20" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B21" s="10" t="s">
@@ -2299,7 +2297,7 @@
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
     </row>
-    <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
+    <row r="36" spans="2:12" s="5" customFormat="1" ht="21">
       <c r="B36" s="53" t="s">
         <v>59</v>
       </c>
@@ -2338,7 +2336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2351,7 +2349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="227" windowWidth="19380" windowHeight="8893"/>
+    <workbookView xWindow="600" yWindow="225" windowWidth="19380" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
   <si>
     <t>3주차</t>
   </si>
@@ -367,11 +372,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 테스트/수정/배포
-2차 팀PJ 주제선정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 팀PJ 상세코딩
 3차 주제선정 / 분석,설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -397,10 +397,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 팀PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>리액트 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -418,11 +414,6 @@
   </si>
   <si>
     <t>도깨비 PJ 와이어프레이밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ 상세코딩
-보그 PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -463,13 +454,37 @@
   </si>
   <si>
     <t>도깨비 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 테스트/수정/배포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 주제선정
+2차 팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue JS 기본
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩
+보그 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩
+보그 PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -935,6 +950,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,9 +972,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,7 +1037,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1057,7 +1072,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1271,63 +1286,63 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.38671875" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.38671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1484,7 +1499,7 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>44</v>
@@ -1516,7 +1531,7 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>45</v>
@@ -1548,7 +1563,7 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>46</v>
@@ -1580,7 +1595,7 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>85</v>
@@ -1612,7 +1627,7 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J13" s="42" t="s">
         <v>86</v>
@@ -1644,7 +1659,7 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J14" s="42" t="s">
         <v>87</v>
@@ -1653,7 +1668,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1678,13 +1693,13 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L15" s="43"/>
     </row>
@@ -1710,7 +1725,7 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>88</v>
@@ -1742,7 +1757,7 @@
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>88</v>
@@ -1774,7 +1789,7 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>88</v>
@@ -1808,10 +1823,10 @@
         <v>60</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K19" s="42" t="s">
         <v>81</v>
@@ -1839,15 +1854,15 @@
       <c r="G20" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="57"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="33" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="L20" s="48"/>
     </row>
@@ -1873,10 +1888,10 @@
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>82</v>
@@ -1905,10 +1920,10 @@
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>82</v>
@@ -1937,10 +1952,10 @@
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>83</v>
@@ -1969,10 +1984,10 @@
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>83</v>
@@ -2001,10 +2016,10 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>83</v>
@@ -2038,10 +2053,10 @@
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -2073,7 +2088,7 @@
         <v>84</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2105,10 +2120,10 @@
         <v>50</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
@@ -2139,7 +2154,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2171,7 +2186,7 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2203,7 +2218,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -2237,7 +2252,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2269,7 +2284,7 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>74</v>
@@ -2284,32 +2299,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-    </row>
-    <row r="36" spans="2:12" s="5" customFormat="1" ht="21">
-      <c r="B36" s="53" t="s">
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+    </row>
+    <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
+      <c r="B36" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">
@@ -2336,7 +2351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2349,7 +2364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
   <si>
     <t>3주차</t>
   </si>
@@ -369,11 +369,6 @@
   </si>
   <si>
     <t>1차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 상세코딩
-3차 주제선정 / 분석,설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -461,23 +456,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Vue JS 기본
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩
+보그 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>2차 팀PJ 주제선정
 2차 팀PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Vue JS 기본
-Javascript 응용 / 제이쿼리 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ 상세코딩
-보그 PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ 상세코딩
-보그 PJ 분석/설계</t>
+    <t>2차 팀PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1286,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1499,7 +1502,7 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>44</v>
@@ -1531,7 +1534,7 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>45</v>
@@ -1563,7 +1566,7 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>46</v>
@@ -1595,7 +1598,7 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>85</v>
@@ -1627,7 +1630,7 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="42" t="s">
         <v>86</v>
@@ -1659,7 +1662,7 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="42" t="s">
         <v>87</v>
@@ -1668,7 +1671,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1693,13 +1696,13 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L15" s="43"/>
     </row>
@@ -1725,7 +1728,7 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>88</v>
@@ -1757,7 +1760,7 @@
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>88</v>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>88</v>
@@ -1823,10 +1826,10 @@
         <v>60</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" s="42" t="s">
         <v>81</v>
@@ -1834,69 +1837,69 @@
       <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="38">
         <v>45656</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="30">
+      <c r="D20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="38">
         <v>45660</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="40">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="33" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="48"/>
+      <c r="K20" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="30">
         <v>45663</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="30">
         <v>45667</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="H21" s="50"/>
+      <c r="I21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B22" s="10" t="s">
@@ -1920,10 +1923,10 @@
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>82</v>
@@ -1952,10 +1955,10 @@
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>83</v>
@@ -1984,10 +1987,10 @@
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>83</v>
@@ -2016,10 +2019,10 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>83</v>
@@ -2053,10 +2056,10 @@
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -2088,7 +2091,7 @@
         <v>84</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2120,10 +2123,10 @@
         <v>50</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
@@ -2154,7 +2157,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2186,7 +2189,7 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2218,7 +2221,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -2252,7 +2255,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2284,7 +2287,7 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>74</v>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
   <si>
     <t>3주차</t>
   </si>
@@ -259,14 +259,6 @@
   <si>
     <t>하이브리드앱/PWA (1/15)
 모바일웹&amp;웹Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;웹Project</t>
-  </si>
-  <si>
-    <t>모바일웹&amp;웹Project (2/11)
-UI/UX 디자인구성요소 설계 및 제작</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -485,6 +477,19 @@
   </si>
   <si>
     <t>3차 기초코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project (2/11)
+UI/UX 디자인구성요소 설계 및 제작</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -957,9 +962,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,6 +981,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1315,41 +1320,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1506,13 +1511,13 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L9" s="43"/>
     </row>
@@ -1538,13 +1543,13 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" s="43"/>
     </row>
@@ -1570,13 +1575,13 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="43"/>
     </row>
@@ -1602,13 +1607,13 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L12" s="43"/>
     </row>
@@ -1634,10 +1639,10 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>47</v>
@@ -1666,16 +1671,16 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>48</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1700,13 +1705,13 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L15" s="43"/>
     </row>
@@ -1732,13 +1737,13 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L16" s="43"/>
     </row>
@@ -1764,13 +1769,13 @@
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L17" s="43"/>
     </row>
@@ -1796,13 +1801,13 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L18" s="43"/>
     </row>
@@ -1830,13 +1835,13 @@
         <v>60</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L19" s="43"/>
     </row>
@@ -1862,13 +1867,13 @@
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L20" s="43"/>
     </row>
@@ -1894,13 +1899,13 @@
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="42" t="s">
-        <v>107</v>
-      </c>
       <c r="K21" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L21" s="43"/>
     </row>
@@ -1926,80 +1931,80 @@
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K22" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="38">
         <v>45677</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="30">
+      <c r="D23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="38">
         <v>45681</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="48"/>
+      <c r="G23" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="30">
         <v>45684</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="30">
         <v>45688</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="32">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="16"/>
+      <c r="G24" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="57"/>
+      <c r="I24" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B25" s="10" t="s">
@@ -2019,17 +2024,17 @@
         <v>5</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L25" s="16"/>
     </row>
@@ -2051,19 +2056,19 @@
         <v>5</v>
       </c>
       <c r="G26" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>68</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -2085,17 +2090,17 @@
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2117,20 +2122,20 @@
         <v>5</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
@@ -2151,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="14" t="s">
@@ -2161,7 +2166,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2183,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="14" t="s">
@@ -2193,7 +2198,7 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2215,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="14" t="s">
@@ -2225,7 +2230,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -2247,10 +2252,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>51</v>
@@ -2259,7 +2264,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2281,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="14" t="s">
@@ -2291,10 +2296,10 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2306,32 +2311,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -443,53 +443,53 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 팀PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 팀PJ 상세코딩
 3차 주제 가이드</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>3차 기초코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 기초코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project (2/11)
+UI/UX 디자인구성요소 설계 및 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>2차 팀PJ 상세코딩
 3차 주제선정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2차 팀PJ 상세코딩
+3차 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 테스트/수정/배포
+3차 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 발표
 3차 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 테스트/수정/배포
-3차 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 발표
-3차 기초코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 기초코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 기초코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;앱Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;앱Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;앱Project (2/11)
-UI/UX 디자인구성요소 설계 및 제작</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +983,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1902,7 +1902,7 @@
         <v>103</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>80</v>
@@ -1934,7 +1934,7 @@
         <v>92</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22" s="42" t="s">
         <v>80</v>
@@ -1959,14 +1959,14 @@
         <v>5</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="42" t="s">
         <v>92</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K23" s="42" t="s">
         <v>81</v>
@@ -1974,69 +1974,69 @@
       <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="38">
         <v>45684</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="30">
+      <c r="D24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="38">
         <v>45688</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="40">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="33" t="s">
+      <c r="G24" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="33" t="s">
+      <c r="J24" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="48"/>
+      <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="30">
         <v>45691</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="30">
         <v>45695</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14" t="s">
+      <c r="G25" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="15" t="s">
+      <c r="J25" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B26" s="10" t="s">
@@ -2056,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>66</v>
@@ -2065,7 +2065,7 @@
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>86</v>
@@ -2097,7 +2097,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>86</v>
@@ -2129,7 +2129,7 @@
         <v>43</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>86</v>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -873,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,9 +922,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,6 +1021,33 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,33 +1068,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1384,8 +1381,8 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1406,41 +1403,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1464,699 +1461,699 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>45561</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="22">
         <v>45562</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="27" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>45565</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="22">
         <v>45569</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="27" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="28"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>45572</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="22">
         <v>45573</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="27" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>45575</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="22">
         <v>45576</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="27" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="28"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>45579</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="D9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="36">
         <v>45583</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="38" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="42"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>45586</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="D10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="36">
         <v>45590</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="38" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>45593</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="37">
+      <c r="D11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="36">
         <v>45597</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="38" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="42"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>45600</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="37">
+      <c r="D12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="36">
         <v>45604</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="38" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="42"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>45607</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="37">
+      <c r="D13" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="36">
         <v>45611</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="38" t="s">
+      <c r="H13" s="39"/>
+      <c r="I13" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="42"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>45614</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="D14" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="36">
         <v>45618</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="45"/>
+      <c r="I14" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="47" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>45621</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="D15" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="36">
         <v>45625</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="42"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>45628</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="D16" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="36">
         <v>45632</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>45635</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="37">
+      <c r="D17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="36">
         <v>45639</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="38">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41" t="s">
+      <c r="H17" s="39"/>
+      <c r="I17" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="42"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>45642</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="D18" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="36">
         <v>45646</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41" t="s">
+      <c r="H18" s="39"/>
+      <c r="I18" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="42"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>45649</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="37">
+      <c r="D19" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="36">
         <v>45653</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="38">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="41" t="s">
+      <c r="K19" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="42"/>
+      <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>45656</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="D20" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="36">
         <v>45660</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="38">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41" t="s">
+      <c r="H20" s="39"/>
+      <c r="I20" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="L20" s="42"/>
+      <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>45663</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="37">
+      <c r="D21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="36">
         <v>45667</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="42"/>
+      <c r="L21" s="41"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>45670</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="37">
+      <c r="D22" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="36">
         <v>45674</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>45677</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="37">
+      <c r="D23" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="36">
         <v>45681</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41" t="s">
+      <c r="H23" s="39"/>
+      <c r="I23" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="42"/>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>45684</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="37">
+      <c r="D24" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="36">
         <v>45688</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="38">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="41" t="s">
+      <c r="H24" s="45"/>
+      <c r="I24" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="42"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="36">
         <v>45691</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="30">
+      <c r="D25" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="36">
         <v>45695</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="47"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="29">
         <v>45698</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="29">
         <v>45702</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:12" ht="56.45" customHeight="1">
       <c r="B27" s="10" t="s">
@@ -2175,10 +2172,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="17"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="14" t="s">
         <v>111</v>
       </c>
@@ -2188,7 +2185,7 @@
       <c r="K27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="18"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="56.45" customHeight="1">
       <c r="B28" s="10" t="s">
@@ -2207,10 +2204,10 @@
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="14" t="s">
         <v>43</v>
       </c>
@@ -2220,7 +2217,7 @@
       <c r="K28" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="34" t="s">
+      <c r="L28" s="33" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2237,14 +2234,14 @@
       <c r="E29" s="11">
         <v>45723</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="14" t="s">
         <v>43</v>
       </c>
@@ -2254,7 +2251,7 @@
       <c r="K29" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L29" s="20"/>
+      <c r="L29" s="19"/>
     </row>
     <row r="30" spans="1:12" ht="56.45" customHeight="1">
       <c r="B30" s="10" t="s">
@@ -2273,10 +2270,10 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="14" t="s">
         <v>43</v>
       </c>
@@ -2286,7 +2283,7 @@
       <c r="K30" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L30" s="20"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="56.45" customHeight="1">
       <c r="B31" s="10" t="s">
@@ -2305,10 +2302,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="14" t="s">
         <v>52</v>
       </c>
@@ -2318,7 +2315,7 @@
       <c r="K31" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L31" s="20"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:12" ht="56.45" customHeight="1">
       <c r="B32" s="10" t="s">
@@ -2337,10 +2334,10 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="34" t="s">
         <v>71</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -2352,7 +2349,7 @@
       <c r="K32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L32" s="20"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33" spans="2:12" ht="56.45" customHeight="1">
       <c r="B33" s="10" t="s">
@@ -2371,10 +2368,10 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="14" t="s">
         <v>51</v>
       </c>
@@ -2384,39 +2381,39 @@
       <c r="K33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="20"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="50">
         <v>45754</v>
       </c>
-      <c r="D34" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="58">
+      <c r="D34" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="50">
         <v>45754</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="52">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63" t="s">
+      <c r="H34" s="54"/>
+      <c r="I34" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="59" t="s">
+      <c r="J34" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="65" t="s">
+      <c r="L34" s="57" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2429,32 +2426,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
     </row>
     <row r="48" spans="2:12">
       <c r="I48" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -925,9 +925,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,9 +1009,6 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,6 +1061,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1403,41 +1403,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1461,731 +1461,731 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>45561</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="21">
         <v>45562</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="26" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="27"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>45565</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21">
         <v>45569</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="26" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="27"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>45572</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="D7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="21">
         <v>45573</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="26" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="27"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>45575</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="D8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="21">
         <v>45576</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="26" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="27"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>45579</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="D9" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="35">
         <v>45583</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="37" t="s">
+      <c r="H9" s="38"/>
+      <c r="I9" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="41"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>45586</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="D10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="35">
         <v>45590</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="37" t="s">
+      <c r="H10" s="38"/>
+      <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="41"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>45593</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="35">
         <v>45597</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="37" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="41"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>45600</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="D12" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="35">
         <v>45604</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="37" t="s">
+      <c r="H12" s="38"/>
+      <c r="I12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="41"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>45607</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="D13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="35">
         <v>45611</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="37" t="s">
+      <c r="H13" s="38"/>
+      <c r="I13" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="41"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>45614</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="D14" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="35">
         <v>45618</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="37" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="45" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>45621</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="D15" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="35">
         <v>45625</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="41"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>45628</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="D16" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="35">
         <v>45632</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40" t="s">
+      <c r="H16" s="38"/>
+      <c r="I16" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="41"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>45635</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="36">
+      <c r="D17" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="35">
         <v>45639</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40" t="s">
+      <c r="H17" s="38"/>
+      <c r="I17" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="41"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>45642</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="36">
+      <c r="D18" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="35">
         <v>45646</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40" t="s">
+      <c r="H18" s="38"/>
+      <c r="I18" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>45649</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="36">
+      <c r="D19" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="35">
         <v>45653</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="41"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>45656</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="36">
+      <c r="D20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="35">
         <v>45660</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40" t="s">
+      <c r="H20" s="38"/>
+      <c r="I20" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="L20" s="41"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>45663</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="36">
+      <c r="D21" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="35">
         <v>45667</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40" t="s">
+      <c r="H21" s="38"/>
+      <c r="I21" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="41"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>45670</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="36">
+      <c r="D22" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="35">
         <v>45674</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40" t="s">
+      <c r="H22" s="38"/>
+      <c r="I22" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="41"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>45677</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="36">
+      <c r="D23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="35">
         <v>45681</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40" t="s">
+      <c r="H23" s="38"/>
+      <c r="I23" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="41"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>45684</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="36">
+      <c r="D24" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="35">
         <v>45688</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="37">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="40" t="s">
+      <c r="H24" s="44"/>
+      <c r="I24" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="41"/>
+      <c r="L24" s="40"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>45691</v>
       </c>
-      <c r="D25" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="36">
+      <c r="D25" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="35">
         <v>45695</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="41"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="35">
         <v>45698</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="D26" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="35">
         <v>45702</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="46"/>
+      <c r="L26" s="40"/>
     </row>
     <row r="27" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="28">
         <v>45705</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="D27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="28">
         <v>45709</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="14" t="s">
+      <c r="H27" s="63"/>
+      <c r="I27" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="56.45" customHeight="1">
       <c r="B28" s="10" t="s">
@@ -2204,10 +2204,10 @@
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="14" t="s">
         <v>43</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="K28" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2234,14 +2234,14 @@
       <c r="E29" s="11">
         <v>45723</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="14" t="s">
         <v>43</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="K29" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L29" s="19"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" ht="56.45" customHeight="1">
       <c r="B30" s="10" t="s">
@@ -2270,7 +2270,7 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="43" t="s">
         <v>68</v>
       </c>
       <c r="H30" s="16"/>
@@ -2283,7 +2283,7 @@
       <c r="K30" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L30" s="19"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" ht="56.45" customHeight="1">
       <c r="B31" s="10" t="s">
@@ -2302,10 +2302,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="14" t="s">
         <v>52</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="K31" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L31" s="19"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" ht="56.45" customHeight="1">
       <c r="B32" s="10" t="s">
@@ -2334,10 +2334,10 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="33" t="s">
         <v>71</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -2349,7 +2349,7 @@
       <c r="K32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L32" s="19"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="2:12" ht="56.45" customHeight="1">
       <c r="B33" s="10" t="s">
@@ -2368,10 +2368,10 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="14" t="s">
         <v>51</v>
       </c>
@@ -2381,39 +2381,39 @@
       <c r="K33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="19"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="48">
         <v>45754</v>
       </c>
-      <c r="D34" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="50">
+      <c r="D34" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="48">
         <v>45754</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="50">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55" t="s">
+      <c r="H34" s="52"/>
+      <c r="I34" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="51" t="s">
+      <c r="J34" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="57" t="s">
+      <c r="L34" s="55" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2426,32 +2426,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="48" spans="2:12">
       <c r="I48" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
   <si>
     <t>3주차</t>
   </si>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 주제선정 / 분석,설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -199,13 +195,6 @@
   </si>
   <si>
     <t>3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC PJ</t>
-  </si>
-  <si>
-    <t>DC PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -465,16 +454,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2/27(목)5-8
-취업세미나
-(날짜변경)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>보그 PJ 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -507,6 +486,40 @@
   <si>
     <t>수료식
 4/7(월)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/27(목)5-8
+취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ, DC PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ
+2차 PJ 팔로우업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종업데이트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,9 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,11 +1073,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1382,7 +1398,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1403,41 +1419,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1478,7 @@
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B5" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="21">
         <v>45561</v>
@@ -1484,13 +1500,13 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B6" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="21">
         <v>45565</v>
@@ -1512,13 +1528,13 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B7" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="21">
         <v>45572</v>
@@ -1540,7 +1556,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L7" s="26"/>
     </row>
@@ -1561,7 +1577,7 @@
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="22"/>
@@ -1573,652 +1589,652 @@
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>45579</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="35">
+      <c r="D9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="34">
         <v>45583</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="40"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>45586</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="35">
+      <c r="D10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="34">
         <v>45590</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="40"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>45593</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="34">
         <v>45597</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>45600</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="35">
+      <c r="D12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="34">
         <v>45604</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="40"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>45607</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="35">
+      <c r="D13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="34">
         <v>45611</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="40"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>45614</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="35">
+      <c r="D14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="34">
         <v>45618</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="45" t="s">
-        <v>94</v>
+      <c r="H14" s="43"/>
+      <c r="I14" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>45621</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="34">
         <v>45625</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="40"/>
+      <c r="G15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>45628</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="35">
+      <c r="D16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="34">
         <v>45632</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="40"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>45635</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="35">
+      <c r="D17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="34">
         <v>45639</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="40"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>45642</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="35">
+      <c r="D18" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="34">
         <v>45646</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="40"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>45649</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="D19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="34">
         <v>45653</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="39" t="s">
+      <c r="G19" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="40"/>
+      <c r="H19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>45656</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="D20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="34">
         <v>45660</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="39" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="L20" s="40"/>
+      <c r="K20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <v>45663</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="35">
+      <c r="D21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="34">
         <v>45667</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="40"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>45670</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="35">
+      <c r="D22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="34">
         <v>45674</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="40"/>
+      <c r="G22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <v>45677</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="35">
+      <c r="D23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="34">
         <v>45681</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="40"/>
+      <c r="K23" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="34">
         <v>45684</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="35">
+      <c r="D24" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="34">
         <v>45688</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="40"/>
+      <c r="G24" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="34">
         <v>45691</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="35">
+      <c r="D25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="34">
         <v>45695</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="34">
         <v>45698</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="35">
+      <c r="D26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="34">
         <v>45702</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="40"/>
+      <c r="G26" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="1:12" ht="56.45" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="34">
         <v>45705</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="28">
+      <c r="D27" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="34">
         <v>45709</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="46" t="s">
+      <c r="G27" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>85</v>
+      <c r="K27" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="28">
         <v>45712</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="D28" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="28">
         <v>45716</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="30">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="32" t="s">
-        <v>110</v>
+      <c r="G28" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
@@ -2238,18 +2254,18 @@
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="43" t="s">
-        <v>117</v>
+      <c r="G29" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="14" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L29" s="18"/>
     </row>
@@ -2270,18 +2286,18 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="43" t="s">
-        <v>68</v>
+      <c r="G30" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L30" s="18"/>
     </row>
@@ -2302,18 +2318,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="43" t="s">
-        <v>69</v>
+      <c r="G31" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="14" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L31" s="18"/>
     </row>
@@ -2334,20 +2350,20 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>71</v>
+      <c r="G32" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L32" s="18"/>
     </row>
@@ -2368,53 +2384,53 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="43" t="s">
-        <v>70</v>
+      <c r="G33" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="14" t="s">
-        <v>51</v>
+      <c r="I33" s="65" t="s">
+        <v>121</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="48">
+      <c r="B34" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="47">
         <v>45754</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="48">
+      <c r="D34" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="47">
         <v>45754</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="49">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="55" t="s">
-        <v>119</v>
+      <c r="G34" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="54" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2426,36 +2442,36 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="B37" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="48" spans="2:12">
       <c r="I48" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1047,6 +1047,9 @@
     <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,11 +1071,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1408,41 +1408,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2255,72 +2255,72 @@
       <c r="K29" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="65"/>
+      <c r="L29" s="57"/>
     </row>
     <row r="30" spans="1:12" ht="56.45" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="32">
         <v>45726</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="D30" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="32">
         <v>45730</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="34">
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="43" t="s">
+      <c r="H30" s="41"/>
+      <c r="I30" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="55"/>
+      <c r="L30" s="57"/>
     </row>
     <row r="31" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="26">
         <v>45733</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="D31" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="26">
         <v>45737</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="14" t="s">
+      <c r="H31" s="65"/>
+      <c r="I31" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="55"/>
     </row>
     <row r="32" spans="1:12" ht="56.45" customHeight="1">
       <c r="B32" s="10" t="s">
@@ -2431,32 +2431,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="21">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
     </row>
     <row r="48" spans="2:12">
       <c r="I48" s="2" t="s">
@@ -2473,7 +2473,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="227" windowWidth="19380" windowHeight="8893"/>
+    <workbookView xWindow="600" yWindow="225" windowWidth="19380" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
@@ -521,7 +526,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -1050,6 +1055,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,9 +1077,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1172,7 +1177,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1386,63 +1391,63 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.38671875" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.38671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2310,7 +2315,7 @@
       <c r="G31" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="65"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="43" t="s">
         <v>119</v>
       </c>
@@ -2431,32 +2436,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="21">
-      <c r="B37" s="61" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
+      <c r="B37" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
     </row>
     <row r="48" spans="2:12">
       <c r="I48" s="2" t="s">
@@ -2483,7 +2488,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2496,7 +2501,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="225" windowWidth="19380" windowHeight="8895"/>
+    <workbookView xWindow="600" yWindow="227" windowWidth="19380" windowHeight="8893"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
@@ -526,7 +521,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -880,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +918,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,9 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,7 +1131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1177,7 +1166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1391,63 +1380,63 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.38671875" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.38671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1471,895 +1460,895 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>45561</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18">
         <v>45562</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="23" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>45565</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="D6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="18">
         <v>45569</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="23" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>45572</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18">
         <v>45573</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="23" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>45575</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="18">
         <v>45576</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="23" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>45579</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="D9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="31">
         <v>45583</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>45586</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="D10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="31">
         <v>45590</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="33" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="37"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>45593</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="D11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="31">
         <v>45597</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="33" t="s">
+      <c r="H11" s="40"/>
+      <c r="I11" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="37"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>45600</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="D12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="31">
         <v>45604</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="33" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>45607</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="32">
+      <c r="D13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="31">
         <v>45611</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="33" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="37"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>45614</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="D14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="31">
         <v>45618</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="33" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="41" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>45621</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="31">
         <v>45625</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="34"/>
+      <c r="I15" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>45628</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D16" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="31">
         <v>45632</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="34"/>
+      <c r="I16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>45635</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="32">
+      <c r="D17" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="31">
         <v>45639</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="34"/>
+      <c r="I17" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="37"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <v>45642</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="32">
+      <c r="D18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="31">
         <v>45646</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="34"/>
+      <c r="I18" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="37"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <v>45649</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="D19" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="31">
         <v>45653</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="33">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="37"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <v>45656</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="32">
+      <c r="D20" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="31">
         <v>45660</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36" t="s">
+      <c r="H20" s="34"/>
+      <c r="I20" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="37"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>45663</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="32">
+      <c r="D21" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="31">
         <v>45667</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36" t="s">
+      <c r="H21" s="34"/>
+      <c r="I21" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="37"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <v>45670</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="32">
+      <c r="D22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="31">
         <v>45674</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36" t="s">
+      <c r="H22" s="34"/>
+      <c r="I22" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="37"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <v>45677</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="32">
+      <c r="D23" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="31">
         <v>45681</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36" t="s">
+      <c r="H23" s="34"/>
+      <c r="I23" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="37"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <v>45684</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="32">
+      <c r="D24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="31">
         <v>45688</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="36" t="s">
+      <c r="H24" s="40"/>
+      <c r="I24" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="37"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>45691</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="32">
+      <c r="D25" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="31">
         <v>45695</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35" t="s">
+      <c r="H25" s="34"/>
+      <c r="I25" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="37"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="31">
         <v>45698</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="32">
+      <c r="D26" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="31">
         <v>45702</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="37"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <v>45705</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="32">
+      <c r="D27" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="31">
         <v>45709</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="35" t="s">
+      <c r="H27" s="40"/>
+      <c r="I27" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="53"/>
+      <c r="L27" s="52"/>
     </row>
     <row r="28" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="31">
         <v>45712</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="32">
+      <c r="D28" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="31">
         <v>45716</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="35" t="s">
+      <c r="H28" s="55"/>
+      <c r="I28" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <v>45720</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="32">
+      <c r="D29" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="31">
         <v>45723</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="33">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="35" t="s">
+      <c r="H29" s="55"/>
+      <c r="I29" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="57"/>
+      <c r="L29" s="56"/>
     </row>
     <row r="30" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="31">
         <v>45726</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="32">
+      <c r="D30" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="31">
         <v>45730</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="33">
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="35" t="s">
+      <c r="H30" s="40"/>
+      <c r="I30" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="57"/>
+      <c r="L30" s="56"/>
     </row>
     <row r="31" spans="1:12" ht="56.45" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="31">
         <v>45733</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="26">
+      <c r="D31" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="31">
         <v>45737</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="43" t="s">
+      <c r="H31" s="55"/>
+      <c r="I31" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="55"/>
+      <c r="L31" s="56"/>
     </row>
     <row r="32" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="25">
         <v>45740</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="D32" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="25">
         <v>45744</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="27">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="17"/>
+      <c r="L32" s="54"/>
     </row>
     <row r="33" spans="2:12" ht="56.45" customHeight="1">
       <c r="B33" s="10" t="s">
@@ -2378,52 +2367,52 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="15"/>
+      <c r="I33" s="53" t="s">
         <v>121</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="44">
         <v>45754</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="45">
+      <c r="D34" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="44">
         <v>45754</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="46">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50" t="s">
+      <c r="H34" s="48"/>
+      <c r="I34" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="46" t="s">
+      <c r="J34" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="51" t="s">
+      <c r="K34" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="51" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2436,32 +2425,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="62" t="s">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="21">
+      <c r="B37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
     </row>
     <row r="48" spans="2:12">
       <c r="I48" s="2" t="s">
@@ -2488,7 +2477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,7 +2490,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -509,12 +509,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>최종업데이트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>DC PJ / 파일럿 PJ
-2차 PJ 팔로우업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종업데이트</t>
+1,2,3차 PJ 팔로우업</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,27 +906,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,9 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,18 +969,12 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,9 +1005,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,6 +1034,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1381,7 +1354,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1402,41 +1375,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1460,963 +1433,963 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="11">
         <v>45561</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11">
         <v>45562</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="13">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="22" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <v>45565</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11">
         <v>45569</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="13">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="22" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="11">
         <v>45572</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
         <v>45573</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="13">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="22" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <v>45575</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11">
         <v>45576</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="13">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="22" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="23">
         <v>45579</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="D9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="23">
         <v>45583</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="25">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="23">
         <v>45586</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="D10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="23">
         <v>45590</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="32" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="23">
         <v>45593</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="D11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="23">
         <v>45597</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="25">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="32" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="23">
         <v>45600</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="D12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="23">
         <v>45604</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="32" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="36"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="23">
         <v>45607</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="D13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="23">
         <v>45611</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="36"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="23">
         <v>45614</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="D14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="23">
         <v>45618</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="25">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="32" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="23">
         <v>45621</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="D15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="23">
         <v>45625</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="25">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="23">
         <v>45628</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="D16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="23">
         <v>45632</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="30" t="s">
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="23">
         <v>45635</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="D17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="23">
         <v>45639</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="25">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="30" t="s">
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="23">
         <v>45642</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="D18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="23">
         <v>45646</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="25">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="30" t="s">
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="23">
         <v>45649</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="31">
+      <c r="D19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="23">
         <v>45653</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="25">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="30" t="s">
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="23">
         <v>45656</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="31">
+      <c r="D20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="23">
         <v>45660</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="25">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="30" t="s">
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="23">
         <v>45663</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="31">
+      <c r="D21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="23">
         <v>45667</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="30" t="s">
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="23">
         <v>45670</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="D22" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="23">
         <v>45674</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35" t="s">
+      <c r="H22" s="26"/>
+      <c r="I22" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="30" t="s">
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="23">
         <v>45677</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="31">
+      <c r="D23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="23">
         <v>45681</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35" t="s">
+      <c r="H23" s="26"/>
+      <c r="I23" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="30" t="s">
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="23">
         <v>45684</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="31">
+      <c r="D24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="23">
         <v>45688</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="25">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="35" t="s">
+      <c r="H24" s="31"/>
+      <c r="I24" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="30" t="s">
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B25" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="23">
         <v>45691</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="31">
+      <c r="D25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="23">
         <v>45695</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34" t="s">
+      <c r="H25" s="26"/>
+      <c r="I25" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="K25" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B26" s="30" t="s">
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="23">
         <v>45698</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="31">
+      <c r="D26" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="23">
         <v>45702</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B27" s="30" t="s">
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="23">
         <v>45705</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="31">
+      <c r="D27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="23">
         <v>45709</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="34" t="s">
+      <c r="H27" s="31"/>
+      <c r="I27" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K27" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="52"/>
-    </row>
-    <row r="28" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B28" s="30" t="s">
+      <c r="L27" s="42"/>
+    </row>
+    <row r="28" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="23">
         <v>45712</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="31">
+      <c r="D28" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="23">
         <v>45716</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="25">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="34" t="s">
+      <c r="H28" s="44"/>
+      <c r="I28" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B29" s="30" t="s">
+    <row r="29" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B29" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="23">
         <v>45720</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="D29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="23">
         <v>45723</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="25">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="34" t="s">
+      <c r="H29" s="44"/>
+      <c r="I29" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="35" t="s">
+      <c r="K29" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="56"/>
-    </row>
-    <row r="30" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B30" s="30" t="s">
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B30" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="23">
         <v>45726</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="31">
+      <c r="D30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="23">
         <v>45730</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="25">
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="31"/>
+      <c r="I30" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="56"/>
-    </row>
-    <row r="31" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B31" s="30" t="s">
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B31" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="23">
         <v>45733</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="31">
+      <c r="D31" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="23">
         <v>45737</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="34" t="s">
+      <c r="H31" s="44"/>
+      <c r="I31" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="56"/>
-    </row>
-    <row r="32" spans="1:12" ht="56.45" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="24" t="s">
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="23">
         <v>45740</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="25">
+      <c r="D32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="23">
         <v>45744</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="25">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I32" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="54"/>
-    </row>
-    <row r="33" spans="2:12" ht="56.45" customHeight="1">
-      <c r="B33" s="10" t="s">
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="1:12" ht="56.45" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="18">
         <v>45747</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="11">
+      <c r="D33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="18">
         <v>45751</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="20">
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="12" t="s">
+      <c r="H33" s="53"/>
+      <c r="I33" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L33" s="16"/>
-    </row>
-    <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="43" t="s">
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="1:12" ht="56.45" customHeight="1" thickBot="1">
+      <c r="B34" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="34">
         <v>45754</v>
       </c>
-      <c r="D34" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="44">
+      <c r="D34" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="34">
         <v>45754</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="36">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" s="45" t="s">
+      <c r="H34" s="38"/>
+      <c r="I34" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="51" t="s">
+      <c r="L34" s="41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="4">
@@ -2424,35 +2397,35 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="59" t="s">
+    <row r="36" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B36" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-    </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="21">
-      <c r="B37" s="60" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+    </row>
+    <row r="37" spans="1:12" s="5" customFormat="1" ht="21">
+      <c r="B37" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-    </row>
-    <row r="48" spans="2:12">
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="I48" s="2" t="s">
         <v>55</v>
       </c>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="227" windowWidth="19380" windowHeight="8893"/>
+    <workbookView xWindow="600" yWindow="225" windowWidth="19380" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -521,7 +526,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -875,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,21 +932,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,48 +956,18 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,10 +995,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,7 +1120,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1354,62 +1335,62 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.38671875" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.38671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="52"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1514,7 @@
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="12"/>
@@ -1545,785 +1526,784 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <v>45579</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="18">
         <v>45583</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="20">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="24" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="28"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="18">
         <v>45586</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18">
         <v>45590</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="18">
         <v>45593</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="18">
         <v>45597</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="20">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="28"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="18">
         <v>45600</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18">
         <v>45604</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="18">
         <v>45607</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="18">
         <v>45611</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="24" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="28"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="18">
         <v>45614</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18">
         <v>45618</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="20">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="24" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="26" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="18">
         <v>45621</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="18">
         <v>45625</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="20">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="28"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="18">
         <v>45628</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="18">
         <v>45632</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="28"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="18">
         <v>45635</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="18">
         <v>45639</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="20">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="28"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="18">
         <v>45642</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="18">
         <v>45646</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="20">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="28"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="18">
         <v>45649</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="18">
         <v>45653</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="20">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="28"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="18">
         <v>45656</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18">
         <v>45660</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="20">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="28"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="18">
         <v>45663</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="18">
         <v>45667</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="18">
         <v>45670</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="D22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="18">
         <v>45674</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="18">
         <v>45677</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="18">
         <v>45681</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="18">
         <v>45684</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="D24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="18">
         <v>45688</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="20">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="27" t="s">
+      <c r="H24" s="25"/>
+      <c r="I24" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="28"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="18">
         <v>45691</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="18">
         <v>45695</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="28"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="18">
         <v>45698</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="18">
         <v>45702</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="28"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="2:12" ht="56.45" customHeight="1">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="18">
         <v>45705</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="18">
         <v>45709</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="26" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="2:12" ht="56.45" customHeight="1">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="18">
         <v>45712</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="D28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="18">
         <v>45716</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="20">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="26" t="s">
+      <c r="H28" s="29"/>
+      <c r="I28" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="56.45" customHeight="1">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="18">
         <v>45720</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="D29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="18">
         <v>45723</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="20">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="26" t="s">
+      <c r="H29" s="29"/>
+      <c r="I29" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="2:12" ht="56.45" customHeight="1">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="18">
         <v>45726</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="D30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="18">
         <v>45730</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="20">
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="26" t="s">
+      <c r="H30" s="25"/>
+      <c r="I30" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="45"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="2:12" ht="56.45" customHeight="1">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="18">
         <v>45733</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="23">
+      <c r="D31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="18">
         <v>45737</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="26" t="s">
+      <c r="H31" s="29"/>
+      <c r="I31" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="45"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="2:12" ht="56.45" customHeight="1">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="18">
         <v>45740</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="D32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="18">
         <v>45744</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="20">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="45"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" ht="56.45" customHeight="1">
-      <c r="A33" s="6"/>
       <c r="B33" s="17" t="s">
         <v>34</v>
       </c>
@@ -2340,52 +2320,53 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54" t="s">
+      <c r="H33" s="29"/>
+      <c r="I33" s="46" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K33" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L33" s="43"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="39">
         <v>45754</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="34">
+      <c r="D34" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="39">
         <v>45754</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="41">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39" t="s">
+      <c r="H34" s="43"/>
+      <c r="I34" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="35" t="s">
+      <c r="J34" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="27" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2398,32 +2379,32 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="1:12" s="5" customFormat="1" ht="21">
-      <c r="B37" s="49" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+    </row>
+    <row r="37" spans="1:12" s="5" customFormat="1" ht="20.25">
+      <c r="B37" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="48" spans="1:12">
       <c r="I48" s="2" t="s">
@@ -2450,7 +2431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2463,7 +2444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
